--- a/data/amoco_HN level.xlsx
+++ b/data/amoco_HN level.xlsx
@@ -1071,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="str">
         <v>1</v>
@@ -1116,15 +1116,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="str">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="str">
         <v>1</v>
@@ -1142,150 +1142,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>12</v>
-      </c>
-      <c r="B4" t="str">
         <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>15</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>20</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>30</v>
-      </c>
-      <c r="B7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>35</v>
-      </c>
-      <c r="B8" t="str">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <v>1</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>40</v>
-      </c>
-      <c r="B9" t="str">
-        <v>1</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <v>1.05</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>